--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H2">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.39581255946687</v>
+        <v>9.788187000000001</v>
       </c>
       <c r="N2">
-        <v>8.39581255946687</v>
+        <v>29.364561</v>
       </c>
       <c r="O2">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="P2">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="Q2">
-        <v>7.88963213835268</v>
+        <v>10.052197242493</v>
       </c>
       <c r="R2">
-        <v>7.88963213835268</v>
+        <v>90.469775182437</v>
       </c>
       <c r="S2">
-        <v>0.03495604616444697</v>
+        <v>0.03519942177783805</v>
       </c>
       <c r="T2">
-        <v>0.03495604616444697</v>
+        <v>0.03519942177783805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H3">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.0302252972441</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N3">
-        <v>18.0302252972441</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O3">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="P3">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="Q3">
-        <v>16.94318971026546</v>
+        <v>18.54330342616112</v>
       </c>
       <c r="R3">
-        <v>16.94318971026546</v>
+        <v>166.88973083545</v>
       </c>
       <c r="S3">
-        <v>0.0750690160579128</v>
+        <v>0.06493242648410248</v>
       </c>
       <c r="T3">
-        <v>0.0750690160579128</v>
+        <v>0.06493242648410247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H4">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.1214966533206</v>
+        <v>14.510488</v>
       </c>
       <c r="N4">
-        <v>13.1214966533206</v>
+        <v>43.531464</v>
       </c>
       <c r="O4">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="P4">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="Q4">
-        <v>12.33040649324585</v>
+        <v>14.90186971916533</v>
       </c>
       <c r="R4">
-        <v>12.33040649324585</v>
+        <v>134.116827472488</v>
       </c>
       <c r="S4">
-        <v>0.05463147724074928</v>
+        <v>0.05218134750738392</v>
       </c>
       <c r="T4">
-        <v>0.05463147724074928</v>
+        <v>0.05218134750738392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H5">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6431176842909</v>
+        <v>14.165572</v>
       </c>
       <c r="N5">
-        <v>12.6431176842909</v>
+        <v>42.496716</v>
       </c>
       <c r="O5">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="P5">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="Q5">
-        <v>11.88086881459519</v>
+        <v>14.54765052984133</v>
       </c>
       <c r="R5">
-        <v>11.88086881459519</v>
+        <v>130.928854768572</v>
       </c>
       <c r="S5">
-        <v>0.05263974181227699</v>
+        <v>0.05094099076287906</v>
       </c>
       <c r="T5">
-        <v>0.05263974181227699</v>
+        <v>0.05094099076287906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H6">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.39581255946687</v>
+        <v>9.788187000000001</v>
       </c>
       <c r="N6">
-        <v>8.39581255946687</v>
+        <v>29.364561</v>
       </c>
       <c r="O6">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="P6">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="Q6">
-        <v>11.36021018621201</v>
+        <v>13.292664642526</v>
       </c>
       <c r="R6">
-        <v>11.36021018621201</v>
+        <v>119.633981782734</v>
       </c>
       <c r="S6">
-        <v>0.05033289572230449</v>
+        <v>0.04654645128984628</v>
       </c>
       <c r="T6">
-        <v>0.05033289572230449</v>
+        <v>0.04654645128984628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H7">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.0302252972441</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N7">
-        <v>18.0302252972441</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O7">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="P7">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="Q7">
-        <v>24.39634611071596</v>
+        <v>24.52099853021112</v>
       </c>
       <c r="R7">
-        <v>24.39634611071596</v>
+        <v>220.6889867719001</v>
       </c>
       <c r="S7">
-        <v>0.1080911994292391</v>
+        <v>0.08586430895227722</v>
       </c>
       <c r="T7">
-        <v>0.1080911994292391</v>
+        <v>0.0858643089522772</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H8">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1214966533206</v>
+        <v>14.510488</v>
       </c>
       <c r="N8">
-        <v>13.1214966533206</v>
+        <v>43.531464</v>
       </c>
       <c r="O8">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="P8">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="Q8">
-        <v>17.75444114355798</v>
+        <v>19.70569736595734</v>
       </c>
       <c r="R8">
-        <v>17.75444114355798</v>
+        <v>177.351276293616</v>
       </c>
       <c r="S8">
-        <v>0.07866337154316971</v>
+        <v>0.06900274002569617</v>
       </c>
       <c r="T8">
-        <v>0.07866337154316971</v>
+        <v>0.06900274002569617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H9">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.6431176842909</v>
+        <v>14.165572</v>
       </c>
       <c r="N9">
-        <v>12.6431176842909</v>
+        <v>42.496716</v>
       </c>
       <c r="O9">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="P9">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="Q9">
-        <v>17.10715589292277</v>
+        <v>19.23729063058934</v>
       </c>
       <c r="R9">
-        <v>17.10715589292277</v>
+        <v>173.135615675304</v>
       </c>
       <c r="S9">
-        <v>0.07579548965641111</v>
+        <v>0.067362536810015</v>
       </c>
       <c r="T9">
-        <v>0.07579548965641111</v>
+        <v>0.067362536810015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H10">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.39581255946687</v>
+        <v>9.788187000000001</v>
       </c>
       <c r="N10">
-        <v>8.39581255946687</v>
+        <v>29.364561</v>
       </c>
       <c r="O10">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="P10">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="Q10">
-        <v>17.05833603930669</v>
+        <v>26.11142442326</v>
       </c>
       <c r="R10">
-        <v>17.05833603930669</v>
+        <v>235.00281980934</v>
       </c>
       <c r="S10">
-        <v>0.07557918691544434</v>
+        <v>0.09143344677014381</v>
       </c>
       <c r="T10">
-        <v>0.07557918691544434</v>
+        <v>0.09143344677014381</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H11">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0302252972441</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N11">
-        <v>18.0302252972441</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O11">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="P11">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="Q11">
-        <v>36.63321921569059</v>
+        <v>48.16778404655556</v>
       </c>
       <c r="R11">
-        <v>36.63321921569059</v>
+        <v>433.510056419</v>
       </c>
       <c r="S11">
-        <v>0.1623082647708034</v>
+        <v>0.1686674172678728</v>
       </c>
       <c r="T11">
-        <v>0.1623082647708034</v>
+        <v>0.1686674172678728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H12">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.1214966533206</v>
+        <v>14.510488</v>
       </c>
       <c r="N12">
-        <v>13.1214966533206</v>
+        <v>43.531464</v>
       </c>
       <c r="O12">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="P12">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="Q12">
-        <v>26.65982567686028</v>
+        <v>38.70885494490666</v>
       </c>
       <c r="R12">
-        <v>26.65982567686028</v>
+        <v>348.3796945041599</v>
       </c>
       <c r="S12">
-        <v>0.1181198414266014</v>
+        <v>0.1355454214510625</v>
       </c>
       <c r="T12">
-        <v>0.1181198414266014</v>
+        <v>0.1355454214510625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H13">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.6431176842909</v>
+        <v>14.165572</v>
       </c>
       <c r="N13">
-        <v>12.6431176842909</v>
+        <v>42.496716</v>
       </c>
       <c r="O13">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="P13">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="Q13">
-        <v>25.68787100897714</v>
+        <v>37.78874092722666</v>
       </c>
       <c r="R13">
-        <v>25.68787100897714</v>
+        <v>340.0986683450399</v>
       </c>
       <c r="S13">
-        <v>0.1138134692606405</v>
+        <v>0.1323234909008828</v>
       </c>
       <c r="T13">
-        <v>0.1138134692606405</v>
+        <v>0.1323234909008828</v>
       </c>
     </row>
   </sheetData>
